--- a/monkeyTest-master/report.xlsx
+++ b/monkeyTest-master/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -90,19 +90,19 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>249秒</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>3%</t>
-  </si>
-  <si>
-    <t>353M</t>
-  </si>
-  <si>
-    <t>103M</t>
+    <t>235秒</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>559M</t>
+  </si>
+  <si>
+    <t>162M</t>
   </si>
   <si>
     <t>60</t>
@@ -111,13 +111,13 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>693KB</t>
-  </si>
-  <si>
-    <t>34KB</t>
-  </si>
-  <si>
-    <t>4KB</t>
+    <t>1598KB</t>
+  </si>
+  <si>
+    <t>351KB</t>
+  </si>
+  <si>
+    <t>32KB</t>
   </si>
   <si>
     <t>崩溃统计日志</t>
@@ -252,87 +252,87 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$A$1:$A$64</c:f>
+              <c:f>APU0216515008791detail!$A$1:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1</c:v>
@@ -341,7 +341,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -350,103 +350,76 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,201 +504,174 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$B$1:$B$64</c:f>
+              <c:f>APU0216515008791detail!$B$1:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>261</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>258</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>259</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>259</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>259</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>259</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>259</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>259</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>259</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>259</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>260</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>259</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>270</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>285</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>278</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>284</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>287</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>275</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>276</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>274</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>276</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>278</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>274</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>273</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>273</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>274</c:v>
+                  <c:v>401</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>274</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>274</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>274</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>278</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>277</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>278</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>278</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>278</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>277</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>275</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>274</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>274</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>274</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>274</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>277</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>274</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>280</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>281</c:v>
+                  <c:v>519</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>276</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>324</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,207 +756,180 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$D$1:$D$66</c:f>
+              <c:f>APU0216515008791detail!$D$1:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>100</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,10 +1014,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$C$1:$C$64</c:f>
+              <c:f>APU0216515008791detail!$C$1:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1262,33 +1181,6 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="63">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -1374,201 +1266,174 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$E$1:$E$64</c:f>
+              <c:f>APU0216515008791detail!$E$1:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148839</c:v>
+                  <c:v>303021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148841</c:v>
+                  <c:v>304619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148843</c:v>
+                  <c:v>304718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148845</c:v>
+                  <c:v>304781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148846</c:v>
+                  <c:v>304788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148854</c:v>
+                  <c:v>304789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148855</c:v>
+                  <c:v>304789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148857</c:v>
+                  <c:v>304798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148859</c:v>
+                  <c:v>304799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148860</c:v>
+                  <c:v>304981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>148869</c:v>
+                  <c:v>305004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>148872</c:v>
+                  <c:v>305005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>148874</c:v>
+                  <c:v>305010</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>148875</c:v>
+                  <c:v>305080</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>148965</c:v>
+                  <c:v>305088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148973</c:v>
+                  <c:v>305088</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>148975</c:v>
+                  <c:v>305088</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148975</c:v>
+                  <c:v>305089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>148977</c:v>
+                  <c:v>305092</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148979</c:v>
+                  <c:v>305099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148987</c:v>
+                  <c:v>305100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>148988</c:v>
+                  <c:v>305102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>148990</c:v>
+                  <c:v>305102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>148992</c:v>
+                  <c:v>305102</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>148994</c:v>
+                  <c:v>305111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>149003</c:v>
+                  <c:v>305112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>149004</c:v>
+                  <c:v>305113</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>149006</c:v>
+                  <c:v>305114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>149009</c:v>
+                  <c:v>305117</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>149016</c:v>
+                  <c:v>305124</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>149021</c:v>
+                  <c:v>305126</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>149022</c:v>
+                  <c:v>305128</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>149025</c:v>
+                  <c:v>305130</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>149026</c:v>
+                  <c:v>305138</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>149027</c:v>
+                  <c:v>305153</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>149035</c:v>
+                  <c:v>305157</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>149037</c:v>
+                  <c:v>305158</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>149039</c:v>
+                  <c:v>305164</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>149040</c:v>
+                  <c:v>305171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>149040</c:v>
+                  <c:v>305173</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>149050</c:v>
+                  <c:v>305174</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>149051</c:v>
+                  <c:v>305176</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>149052</c:v>
+                  <c:v>305179</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>149054</c:v>
+                  <c:v>305186</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>149055</c:v>
+                  <c:v>305187</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>149093</c:v>
+                  <c:v>305187</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>149095</c:v>
+                  <c:v>305188</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>149096</c:v>
+                  <c:v>305202</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>149171</c:v>
+                  <c:v>305227</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>149173</c:v>
+                  <c:v>305259</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>149181</c:v>
+                  <c:v>305282</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>149183</c:v>
+                  <c:v>305303</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>149185</c:v>
+                  <c:v>305320</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>149187</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>149188</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>149337</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>149343</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>149351</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>149748</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>150441</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>150622</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>150627</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>150629</c:v>
+                  <c:v>305353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,201 +1518,174 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>APU0216515008791detail!$F$1:$F$64</c:f>
+              <c:f>APU0216515008791detail!$F$1:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8981</c:v>
+                  <c:v>130536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8982</c:v>
+                  <c:v>130617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8985</c:v>
+                  <c:v>130622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8986</c:v>
+                  <c:v>130626</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8987</c:v>
+                  <c:v>130630</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8987</c:v>
+                  <c:v>130630</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8987</c:v>
+                  <c:v>130631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8988</c:v>
+                  <c:v>130631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8989</c:v>
+                  <c:v>130631</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8990</c:v>
+                  <c:v>130643</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8991</c:v>
+                  <c:v>130647</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8993</c:v>
+                  <c:v>130647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8994</c:v>
+                  <c:v>130661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8994</c:v>
+                  <c:v>130670</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9006</c:v>
+                  <c:v>130672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9007</c:v>
+                  <c:v>130673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9009</c:v>
+                  <c:v>130673</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9010</c:v>
+                  <c:v>130674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9010</c:v>
+                  <c:v>130675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9011</c:v>
+                  <c:v>130676</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9012</c:v>
+                  <c:v>130676</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9013</c:v>
+                  <c:v>130678</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9013</c:v>
+                  <c:v>130679</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9013</c:v>
+                  <c:v>130679</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9013</c:v>
+                  <c:v>130680</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9013</c:v>
+                  <c:v>130680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9013</c:v>
+                  <c:v>130680</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9014</c:v>
+                  <c:v>130682</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9015</c:v>
+                  <c:v>130691</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9030</c:v>
+                  <c:v>130691</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9031</c:v>
+                  <c:v>130691</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9032</c:v>
+                  <c:v>130692</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9035</c:v>
+                  <c:v>130693</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9036</c:v>
+                  <c:v>130693</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9036</c:v>
+                  <c:v>130700</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9036</c:v>
+                  <c:v>130701</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9037</c:v>
+                  <c:v>130701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9037</c:v>
+                  <c:v>130703</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9037</c:v>
+                  <c:v>130703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9037</c:v>
+                  <c:v>130703</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9038</c:v>
+                  <c:v>130704</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9038</c:v>
+                  <c:v>130704</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9039</c:v>
+                  <c:v>130711</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9039</c:v>
+                  <c:v>130711</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9040</c:v>
+                  <c:v>130711</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9048</c:v>
+                  <c:v>130711</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9052</c:v>
+                  <c:v>130711</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9052</c:v>
+                  <c:v>130730</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9056</c:v>
+                  <c:v>130736</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9056</c:v>
+                  <c:v>130935</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9060</c:v>
+                  <c:v>131261</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9062</c:v>
+                  <c:v>131571</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9070</c:v>
+                  <c:v>131873</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9071</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9072</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9095</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9098</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9104</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9127</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9161</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9176</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9181</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9184</c:v>
+                  <c:v>132223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,13 +1742,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1934,13 +1772,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1964,13 +1802,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1994,13 +1832,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2024,13 +1862,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2054,13 +1892,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2504,10 +2342,10 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N3" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
@@ -2542,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2563,21 +2401,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2585,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,102 +2444,102 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>260</v>
+        <v>401</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
-        <v>148839</v>
+        <v>303021</v>
       </c>
       <c r="F2" s="2">
-        <v>8981</v>
+        <v>130536</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>261</v>
+        <v>518</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
-        <v>148841</v>
+        <v>304619</v>
       </c>
       <c r="F3" s="2">
-        <v>8982</v>
+        <v>130617</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>258</v>
+        <v>478</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
-        <v>148843</v>
+        <v>304718</v>
       </c>
       <c r="F4" s="2">
-        <v>8985</v>
+        <v>130622</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
-        <v>148845</v>
+        <v>304781</v>
       </c>
       <c r="F5" s="2">
-        <v>8986</v>
+        <v>130626</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>259</v>
+        <v>436</v>
       </c>
       <c r="C6" s="2">
         <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
-        <v>148846</v>
+        <v>304788</v>
       </c>
       <c r="F6" s="2">
-        <v>8987</v>
+        <v>130630</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
@@ -2724,119 +2547,119 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="C7" s="2">
         <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2">
-        <v>148854</v>
+        <v>304789</v>
       </c>
       <c r="F7" s="2">
-        <v>8987</v>
+        <v>130630</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="C8" s="2">
         <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
-        <v>148855</v>
+        <v>304789</v>
       </c>
       <c r="F8" s="2">
-        <v>8987</v>
+        <v>130631</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2">
-        <v>148857</v>
+        <v>304798</v>
       </c>
       <c r="F9" s="2">
-        <v>8988</v>
+        <v>130631</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2">
-        <v>148859</v>
+        <v>304799</v>
       </c>
       <c r="F10" s="2">
-        <v>8989</v>
+        <v>130631</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>259</v>
+        <v>559</v>
       </c>
       <c r="C11" s="2">
         <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2">
-        <v>148860</v>
+        <v>304981</v>
       </c>
       <c r="F11" s="2">
-        <v>8990</v>
+        <v>130643</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>259</v>
+        <v>471</v>
       </c>
       <c r="C12" s="2">
         <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2">
-        <v>148869</v>
+        <v>305004</v>
       </c>
       <c r="F12" s="2">
-        <v>8991</v>
+        <v>130647</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2844,39 +2667,39 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>260</v>
+        <v>424</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2">
-        <v>148872</v>
+        <v>305005</v>
       </c>
       <c r="F13" s="2">
-        <v>8993</v>
+        <v>130647</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>259</v>
+        <v>424</v>
       </c>
       <c r="C14" s="2">
         <v>60</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2">
-        <v>148874</v>
+        <v>305010</v>
       </c>
       <c r="F14" s="2">
-        <v>8994</v>
+        <v>130661</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2884,99 +2707,99 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="C15" s="2">
         <v>60</v>
       </c>
       <c r="D15" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2">
-        <v>148875</v>
+        <v>305080</v>
       </c>
       <c r="F15" s="2">
-        <v>8994</v>
+        <v>130670</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>285</v>
+        <v>432</v>
       </c>
       <c r="C16" s="2">
         <v>60</v>
       </c>
       <c r="D16" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2">
-        <v>148965</v>
+        <v>305088</v>
       </c>
       <c r="F16" s="2">
-        <v>9006</v>
+        <v>130672</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="C17" s="2">
         <v>60</v>
       </c>
       <c r="D17" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2">
-        <v>148973</v>
+        <v>305088</v>
       </c>
       <c r="F17" s="2">
-        <v>9007</v>
+        <v>130673</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C18" s="2">
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2">
-        <v>148975</v>
+        <v>305088</v>
       </c>
       <c r="F18" s="2">
-        <v>9009</v>
+        <v>130673</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
       </c>
       <c r="D19" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2">
-        <v>148975</v>
+        <v>305089</v>
       </c>
       <c r="F19" s="2">
-        <v>9010</v>
+        <v>130674</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2984,139 +2807,139 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>284</v>
+        <v>434</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
       </c>
       <c r="D20" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2">
-        <v>148977</v>
+        <v>305092</v>
       </c>
       <c r="F20" s="2">
-        <v>9010</v>
+        <v>130675</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>287</v>
+        <v>433</v>
       </c>
       <c r="C21" s="2">
         <v>60</v>
       </c>
       <c r="D21" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2">
-        <v>148979</v>
+        <v>305099</v>
       </c>
       <c r="F21" s="2">
-        <v>9011</v>
+        <v>130676</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C22" s="2">
         <v>60</v>
       </c>
       <c r="D22" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
-        <v>148987</v>
+        <v>305100</v>
       </c>
       <c r="F22" s="2">
-        <v>9012</v>
+        <v>130676</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2">
-        <v>148988</v>
+        <v>305102</v>
       </c>
       <c r="F23" s="2">
-        <v>9013</v>
+        <v>130678</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C24" s="2">
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2">
-        <v>148990</v>
+        <v>305102</v>
       </c>
       <c r="F24" s="2">
-        <v>9013</v>
+        <v>130679</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C25" s="2">
         <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2">
-        <v>148992</v>
+        <v>305102</v>
       </c>
       <c r="F25" s="2">
-        <v>9013</v>
+        <v>130679</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C26" s="2">
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2">
-        <v>148994</v>
+        <v>305111</v>
       </c>
       <c r="F26" s="2">
-        <v>9013</v>
+        <v>130680</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3124,19 +2947,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>276</v>
+        <v>432</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
       </c>
       <c r="D27" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2">
-        <v>149003</v>
+        <v>305112</v>
       </c>
       <c r="F27" s="2">
-        <v>9013</v>
+        <v>130680</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3144,39 +2967,39 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="C28" s="2">
         <v>60</v>
       </c>
       <c r="D28" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2">
-        <v>149004</v>
+        <v>305113</v>
       </c>
       <c r="F28" s="2">
-        <v>9013</v>
+        <v>130680</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="C29" s="2">
         <v>60</v>
       </c>
       <c r="D29" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2">
-        <v>149006</v>
+        <v>305114</v>
       </c>
       <c r="F29" s="2">
-        <v>9014</v>
+        <v>130682</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3184,19 +3007,19 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="C30" s="2">
         <v>60</v>
       </c>
       <c r="D30" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2">
-        <v>149009</v>
+        <v>305117</v>
       </c>
       <c r="F30" s="2">
-        <v>9015</v>
+        <v>130691</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3204,319 +3027,319 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>278</v>
+        <v>433</v>
       </c>
       <c r="C31" s="2">
         <v>60</v>
       </c>
       <c r="D31" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2">
-        <v>149016</v>
+        <v>305124</v>
       </c>
       <c r="F31" s="2">
-        <v>9030</v>
+        <v>130691</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="C32" s="2">
         <v>60</v>
       </c>
       <c r="D32" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2">
-        <v>149021</v>
+        <v>305126</v>
       </c>
       <c r="F32" s="2">
-        <v>9031</v>
+        <v>130691</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="2">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="C33" s="2">
         <v>60</v>
       </c>
       <c r="D33" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2">
-        <v>149022</v>
+        <v>305128</v>
       </c>
       <c r="F33" s="2">
-        <v>9032</v>
+        <v>130692</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" s="2">
-        <v>273</v>
+        <v>405</v>
       </c>
       <c r="C34" s="2">
         <v>60</v>
       </c>
       <c r="D34" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2">
-        <v>149025</v>
+        <v>305130</v>
       </c>
       <c r="F34" s="2">
-        <v>9035</v>
+        <v>130693</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2">
-        <v>274</v>
+        <v>401</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
       </c>
       <c r="D35" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E35" s="2">
-        <v>149026</v>
+        <v>305138</v>
       </c>
       <c r="F35" s="2">
-        <v>9036</v>
+        <v>130693</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="C36" s="2">
         <v>60</v>
       </c>
       <c r="D36" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2">
-        <v>149027</v>
+        <v>305153</v>
       </c>
       <c r="F36" s="2">
-        <v>9036</v>
+        <v>130700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="C37" s="2">
         <v>60</v>
       </c>
       <c r="D37" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2">
-        <v>149035</v>
+        <v>305157</v>
       </c>
       <c r="F37" s="2">
-        <v>9036</v>
+        <v>130701</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B38" s="2">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="C38" s="2">
         <v>60</v>
       </c>
       <c r="D38" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2">
-        <v>149037</v>
+        <v>305158</v>
       </c>
       <c r="F38" s="2">
-        <v>9037</v>
+        <v>130701</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="C39" s="2">
         <v>60</v>
       </c>
       <c r="D39" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2">
-        <v>149039</v>
+        <v>305164</v>
       </c>
       <c r="F39" s="2">
-        <v>9037</v>
+        <v>130703</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="2">
-        <v>277</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2">
         <v>60</v>
       </c>
       <c r="D40" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2">
-        <v>149040</v>
+        <v>305171</v>
       </c>
       <c r="F40" s="2">
-        <v>9037</v>
+        <v>130703</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="C41" s="2">
         <v>60</v>
       </c>
       <c r="D41" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2">
-        <v>149040</v>
+        <v>305173</v>
       </c>
       <c r="F41" s="2">
-        <v>9037</v>
+        <v>130703</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="C42" s="2">
         <v>60</v>
       </c>
       <c r="D42" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2">
-        <v>149050</v>
+        <v>305174</v>
       </c>
       <c r="F42" s="2">
-        <v>9038</v>
+        <v>130704</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="2">
-        <v>278</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2">
         <v>60</v>
       </c>
       <c r="D43" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2">
-        <v>149051</v>
+        <v>305176</v>
       </c>
       <c r="F43" s="2">
-        <v>9038</v>
+        <v>130704</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>277</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2">
         <v>60</v>
       </c>
       <c r="D44" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2">
-        <v>149052</v>
+        <v>305179</v>
       </c>
       <c r="F44" s="2">
-        <v>9039</v>
+        <v>130711</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B45" s="2">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="C45" s="2">
         <v>60</v>
       </c>
       <c r="D45" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2">
-        <v>149054</v>
+        <v>305186</v>
       </c>
       <c r="F45" s="2">
-        <v>9039</v>
+        <v>130711</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="C46" s="2">
         <v>60</v>
       </c>
       <c r="D46" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2">
-        <v>149055</v>
+        <v>305187</v>
       </c>
       <c r="F46" s="2">
-        <v>9040</v>
+        <v>130711</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3524,369 +3347,189 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="C47" s="2">
         <v>60</v>
       </c>
       <c r="D47" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2">
-        <v>149093</v>
+        <v>305187</v>
       </c>
       <c r="F47" s="2">
-        <v>9048</v>
+        <v>130711</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="2">
-        <v>274</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2">
         <v>60</v>
       </c>
       <c r="D48" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2">
-        <v>149095</v>
+        <v>305188</v>
       </c>
       <c r="F48" s="2">
-        <v>9052</v>
+        <v>130711</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2">
-        <v>274</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2">
         <v>60</v>
       </c>
       <c r="D49" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2">
-        <v>149096</v>
+        <v>305202</v>
       </c>
       <c r="F49" s="2">
-        <v>9052</v>
+        <v>130730</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>277</v>
+        <v>429</v>
       </c>
       <c r="C50" s="2">
         <v>60</v>
       </c>
       <c r="D50" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2">
-        <v>149171</v>
+        <v>305227</v>
       </c>
       <c r="F50" s="2">
-        <v>9056</v>
+        <v>130736</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2">
-        <v>274</v>
+        <v>503</v>
       </c>
       <c r="C51" s="2">
         <v>60</v>
       </c>
       <c r="D51" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2">
-        <v>149173</v>
+        <v>305259</v>
       </c>
       <c r="F51" s="2">
-        <v>9056</v>
+        <v>130935</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B52" s="2">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="C52" s="2">
         <v>60</v>
       </c>
       <c r="D52" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2">
-        <v>149181</v>
+        <v>305282</v>
       </c>
       <c r="F52" s="2">
-        <v>9060</v>
+        <v>131261</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2">
-        <v>281</v>
+        <v>519</v>
       </c>
       <c r="C53" s="2">
         <v>60</v>
       </c>
       <c r="D53" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2">
-        <v>149183</v>
+        <v>305303</v>
       </c>
       <c r="F53" s="2">
-        <v>9062</v>
+        <v>131571</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2">
-        <v>276</v>
+        <v>515</v>
       </c>
       <c r="C54" s="2">
         <v>60</v>
       </c>
       <c r="D54" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2">
-        <v>149185</v>
+        <v>305320</v>
       </c>
       <c r="F54" s="2">
-        <v>9070</v>
+        <v>131873</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2">
-        <v>276</v>
+        <v>520</v>
       </c>
       <c r="C55" s="2">
         <v>60</v>
       </c>
       <c r="D55" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2">
-        <v>149187</v>
+        <v>305353</v>
       </c>
       <c r="F55" s="2">
-        <v>9071</v>
+        <v>132223</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="2">
-        <v>353</v>
-      </c>
-      <c r="C56" s="2">
-        <v>60</v>
-      </c>
       <c r="D56" s="2">
-        <v>100</v>
-      </c>
-      <c r="E56" s="2">
-        <v>149188</v>
-      </c>
-      <c r="F56" s="2">
-        <v>9072</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="2">
-        <v>11</v>
-      </c>
-      <c r="B57" s="2">
-        <v>298</v>
-      </c>
-      <c r="C57" s="2">
-        <v>60</v>
-      </c>
       <c r="D57" s="2">
-        <v>100</v>
-      </c>
-      <c r="E57" s="2">
-        <v>149337</v>
-      </c>
-      <c r="F57" s="2">
-        <v>9095</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2">
-        <v>283</v>
-      </c>
-      <c r="C58" s="2">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2">
-        <v>100</v>
-      </c>
-      <c r="E58" s="2">
-        <v>149343</v>
-      </c>
-      <c r="F58" s="2">
-        <v>9098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
-        <v>278</v>
-      </c>
-      <c r="C59" s="2">
-        <v>60</v>
-      </c>
-      <c r="D59" s="2">
-        <v>100</v>
-      </c>
-      <c r="E59" s="2">
-        <v>149351</v>
-      </c>
-      <c r="F59" s="2">
-        <v>9104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2">
-        <v>6</v>
-      </c>
-      <c r="B60" s="2">
-        <v>287</v>
-      </c>
-      <c r="C60" s="2">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2">
-        <v>149748</v>
-      </c>
-      <c r="F60" s="2">
-        <v>9127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2">
-        <v>316</v>
-      </c>
-      <c r="C61" s="2">
-        <v>60</v>
-      </c>
-      <c r="D61" s="2">
-        <v>100</v>
-      </c>
-      <c r="E61" s="2">
-        <v>150441</v>
-      </c>
-      <c r="F61" s="2">
-        <v>9161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2">
-        <v>5</v>
-      </c>
-      <c r="B62" s="2">
-        <v>339</v>
-      </c>
-      <c r="C62" s="2">
-        <v>60</v>
-      </c>
-      <c r="D62" s="2">
-        <v>100</v>
-      </c>
-      <c r="E62" s="2">
-        <v>150622</v>
-      </c>
-      <c r="F62" s="2">
-        <v>9176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2">
-        <v>2</v>
-      </c>
-      <c r="B63" s="2">
-        <v>325</v>
-      </c>
-      <c r="C63" s="2">
-        <v>60</v>
-      </c>
-      <c r="D63" s="2">
-        <v>100</v>
-      </c>
-      <c r="E63" s="2">
-        <v>150627</v>
-      </c>
-      <c r="F63" s="2">
-        <v>9181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="2">
-        <v>324</v>
-      </c>
-      <c r="C64" s="2">
-        <v>60</v>
-      </c>
-      <c r="D64" s="2">
-        <v>100</v>
-      </c>
-      <c r="E64" s="2">
-        <v>150629</v>
-      </c>
-      <c r="F64" s="2">
-        <v>9184</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
